--- a/output/output_21Savage.xlsx
+++ b/output/output_21Savage.xlsx
@@ -444,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,10 +458,16 @@
         <v>46</v>
       </c>
       <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D1">
+        <v>68</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -469,10 +475,16 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,10 +492,16 @@
         <v>48</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -491,10 +509,16 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -502,10 +526,16 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -513,10 +543,16 @@
         <v>41</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -524,10 +560,16 @@
         <v>54</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -535,10 +577,16 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -546,10 +594,16 @@
         <v>79</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -557,10 +611,16 @@
         <v>55</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -568,10 +628,16 @@
         <v>54</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>202</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -579,10 +645,16 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -590,10 +662,16 @@
         <v>41</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -601,10 +679,16 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -612,10 +696,16 @@
         <v>73</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -623,10 +713,16 @@
         <v>44</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -634,10 +730,16 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>191</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -645,10 +747,16 @@
         <v>58</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>79</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -656,10 +764,16 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -667,10 +781,16 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -678,10 +798,16 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -689,10 +815,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -700,10 +832,16 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>101</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -711,10 +849,16 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -722,10 +866,16 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -733,10 +883,16 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <v>244</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -744,10 +900,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -755,10 +917,16 @@
         <v>40</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -766,10 +934,16 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -777,10 +951,16 @@
         <v>50</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -788,10 +968,16 @@
         <v>47</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -799,10 +985,16 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -810,6 +1002,12 @@
         <v>1</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
     </row>
